--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0116D00B-A52A-4A14-A7D1-64A9D90AF807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F432AE96-E4A0-42BC-AA4D-976533270A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="4040" windowWidth="19420" windowHeight="10560" xr2:uid="{0219FA75-98F6-41AB-800B-5ED77D0831A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0219FA75-98F6-41AB-800B-5ED77D0831A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>01/2023/TTLT-BCA-BQP-TANDTC-VKSNDTC</t>
   </si>
   <si>
-    <t>[Ministry of Public Security, Ministry of National Defense]</t>
+    <t>[Ministry of Public Security, Ministry of National Defense, People's Supreme Court, Supreme People's Court]</t>
   </si>
 </sst>
 </file>
@@ -167,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,13 +175,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,16 +535,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF47B6C-EEE0-4A99-9FD7-65A9036D0A19}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
@@ -545,11 +564,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -629,11 +648,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -684,6 +703,54 @@
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
